--- a/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_aerosol.xlsx
+++ b/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_aerosol.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/models/cmcc-cm2-sr5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202B10C-9FF8-2B47-BF18-2E39E1D85911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,17 @@
     <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
     <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="540">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -42,7 +53,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>CMCC-ESM2</t>
+    <t>CMCC-CM2-SR5</t>
   </si>
   <si>
     <t>Realm / Topic</t>
@@ -138,12 +149,39 @@
     <t>Process</t>
   </si>
   <si>
+    <t>Liu_2012</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Richter_2014</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Lamarque_2010</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Bond_2007</t>
+  </si>
+  <si>
+    <t>Junker-Liousse_2008</t>
+  </si>
+  <si>
+    <t>Smith_2001</t>
+  </si>
+  <si>
+    <t>Smith_2004</t>
+  </si>
+  <si>
     <t>1.1.1</t>
   </si>
   <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
     <t>Key properties of the aerosol model</t>
   </si>
   <si>
@@ -162,6 +200,9 @@
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
+    <t xml:space="preserve">modal aerosol module, 3-mode version (MAM3, Liu_2012) </t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -192,6 +233,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>The 3-mode version of MAM (MAM3) takes into account   Aitken,  accumulation  and  coarse  modes. For MAM3 the following assumptions are made: (1) primary carbon is internally mixed with secondary aerosol by merging the primary carbon mode with the accumulation mode; (2)  the  coarse  dust  and  sea  salt  modes  are merged  into  a single coarse mode; (3) the fine dust and sea salt modes are similarly merged with the accumulation mode;  (4)  sulfate  is  partially  neutralized  by  ammonium  in the form of NH4HSO4, so that ammonium is effectively pre-scribed and NH3 is not simulated. The total number of transported aerosol tracers in MAM3 is 15. The transported gas species are SO2, H2O2, DMS, H2SO4, and a lumped semi-volatile  organic  species. (Liu_2012)</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -234,6 +278,12 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>- primary carbon is internally mixed with secondary aerosol by merging the primary carbon mode with the accumulation mode; 
+- the  coarse  dust  and  sea  salt  modes  are merged  into  a single coarse mode; 
+- the fine dust and sea salt modes are similarly merged with the accumulation mode;
+- sulfate  is  partially  neutralized  by  ammonium  in the form of NH4HSO4, so that ammonium is effectively pre-scribed and NH3 is not simulated.</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -246,12 +296,12 @@
     <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
   </si>
   <si>
+    <t>3D number concentration for aerosols</t>
+  </si>
+  <si>
     <t>3D mass/volume ratio for aerosols</t>
   </si>
   <si>
-    <t>3D number concentration for aerosols</t>
-  </si>
-  <si>
     <t>1.1.1.7 *</t>
   </si>
   <si>
@@ -489,6 +539,9 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>f09</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
@@ -501,6 +554,9 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
+    <t>0.9 x 1.25 degrees lat-lon</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
@@ -537,6 +593,9 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>1.6.1</t>
   </si>
   <si>
@@ -597,9 +656,6 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>Grid</t>
-  </si>
-  <si>
     <t>Aerosol grid</t>
   </si>
   <si>
@@ -612,6 +668,9 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
+    <t>Finite Volume regular grid (f09)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
@@ -621,6 +680,9 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
+    <t>The grid coincides with the grid of the atmospheric model CAM5, run at a horizontal resolution of about 1°, with a regular grid of 0.9° × 1.25° and 30 vertical levels up to 2 hPa (Richter_2014).</t>
+  </si>
+  <si>
     <t>2.1.1.3 *</t>
   </si>
   <si>
@@ -633,6 +695,9 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>2.2.1</t>
   </si>
   <si>
@@ -774,9 +839,6 @@
     <t>4.1.1</t>
   </si>
   <si>
-    <t>Emissions</t>
-  </si>
-  <si>
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
@@ -807,6 +869,9 @@
     <t>cmip6.aerosol.emissions.method</t>
   </si>
   <si>
+    <t>antropogenic emissions from Lamarque_2010 IPCC AR5 emission data set</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -825,6 +890,12 @@
     <t>Interactive above surface</t>
   </si>
   <si>
+    <t>Emissions of black carbon and organic carbon represent an update of Bond_2007 and Junker-Liousse_2008</t>
+  </si>
+  <si>
+    <t>Emissions of sulfur dioxide are an update of Smith_2001, Smith_2004</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.1.1.4 </t>
   </si>
   <si>
@@ -1507,25 +1578,104 @@
   </si>
   <si>
     <t>STS (supercooled ternary solution aerosol particule)</t>
+  </si>
+  <si>
+    <t>Silvio Gualdi</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>GUALDI-SILVIO</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>NAVARRA-ANTONIO</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>sulfate, dust, primary organic carbon, black carbon, sea salt</t>
+  </si>
+  <si>
+    <t>within CAM5</t>
+  </si>
+  <si>
+    <t>fortran 90</t>
+  </si>
+  <si>
+    <t>u,v,w,T, Q, P, cloud</t>
+  </si>
+  <si>
+    <t>surface type, leaf area index</t>
+  </si>
+  <si>
+    <t>Emissions of dust and sea salt depends on sensitively surface wind speeds. Therefore, some tunning of dust and sea salt emissions are necessary when surface winds are changed (e.g., with model resolution). Usually the tunning is achieved to match the model simulated aerosol optical depth near dust and sea salt sources to the observations.</t>
+  </si>
+  <si>
+    <t>Global mean dust optical depth</t>
+  </si>
+  <si>
+    <t>Transport is handled in the atmosphere model CAM5.</t>
+  </si>
+  <si>
+    <t>Aerosol transport is handled by the finite volume dynamic core</t>
+  </si>
+  <si>
+    <t>Primary black carbon, primary organic matter, secondary organic aerosol precursor, sulfur and sulfate emissions are specified from files.  Dust and sea salt are calculated online. 2% of SO2 emissions are emitted as sulfate (Aitken and accumulation mode, depending on source type).</t>
+  </si>
+  <si>
+    <t>bc_a1, so4_a1 , so4_a2, num_a1, num_a2, pom_a1, so4_a1, so4_a2</t>
+  </si>
+  <si>
+    <t>dst_a1, dst_a2, dst_a3, ncl_a1, ncl_a2, ncl_a3, num_a1, num_a2, num_a3</t>
+  </si>
+  <si>
+    <t>mass/volume mixing ratio, number concentration</t>
+  </si>
+  <si>
+    <t>Mass mixing ratios of aerosol components (e.g., sufate, BC, dust, sea salt) and number concentrations of aerosol modes are predicted in the aerosol model. Aerosol mixing ratios and number concentrations dynamics due to difference processes are solved by the aerosol model.</t>
+  </si>
+  <si>
+    <t>extinction coefficient, single scattering albedo, asymmetric parameter, refractive index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol optical properties are parameterized in terms of wet refractive index and wet surface mode radius. Volume mixing rule is used to calculate the volume mean wet refractive index for mixtures of insoluble and soluble particles. </t>
+  </si>
+  <si>
+    <t>Volume weighted mixing</t>
+  </si>
+  <si>
+    <t>Aerosol radiative effects are treated in the Rapid Radiative Transfer Model for GCMs (RRTMG). Longwave and shortwave radiative transfer are parameterized in CAM5 with the RRTMG, a broadband k-distribution radiation model developed for application to GCMs.</t>
+  </si>
+  <si>
+    <t>Aerosol activation is physically represented and based on the aerosol size distribution, hygroscopicity, and updraft velocity. Thus, aerosol changes in number concentrations are allowed to affect cloud droplet number concentrations and activated aerosols will be transferred to the cloud-borne aerosol. There is a two-way aerosol-cloud interactions with the formation of precipitation that removes cloud-borne aerosols. Aerosols are also allowed to affect ice and mixed-phase clouds by ice nucleation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMA3, modal aerosol module, 3-mode version (Liu_2012) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1533,6 +1683,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1540,16 +1691,95 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1559,63 +1789,8 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,24 +1800,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF337AB7"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF003366"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +1846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1703,12 +1890,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF337AB7"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1723,44 +1995,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1787,14 +2059,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1821,6 +2111,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1832,188 +2140,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2053,37 +2339,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2099,7 +2385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2115,13 +2401,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2129,54 +2417,57 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2184,2812 +2475,3393 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="17" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="17" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11" xr:uid="{859F2CF5-8116-3A44-AC7A-32A759FAC1EB}">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AC30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF80" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG80" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI80" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="11">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:35" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:35" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:35" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-      <c r="AA79" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC79" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF79" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG79" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH79" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI79" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
+    <row r="131" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AE21</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA23:AE23</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AC30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B31" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA32:AC32</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B118 B114 B98 B76 B72 B68" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B122" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{4414D7A8-F167-9241-ACBE-1FE68047E098}">
+      <formula1>AA64:AD64</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AI79</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80" xr:uid="{A7074292-CFFF-AA4A-A37D-AEF4EC7DFA84}">
+      <formula1>AA80:AI80</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24" customHeight="1">
+    <row r="1" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="24" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="24" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:31" ht="24" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="24" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:31" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="24" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>249</v>
+      </c>
       <c r="AA15" s="6" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AE15</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0400-000002000000}">
+      <formula1>AA27:AD27</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{4A894A74-D7FD-7F48-BFF1-D77D98E70A65}">
       <formula1>AA20:AE20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AD25</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24" customHeight="1">
+    <row r="1" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="24" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:33" ht="24" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="24" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:33" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="24" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="24" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="23" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
+        <v>296</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA26" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="AB26" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:35" ht="24" customHeight="1">
+      <c r="AC26" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B18" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA16:AG16</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AI21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B26" xr:uid="{2D575977-F24B-BD45-8F3B-238560186A84}">
+      <formula1>AA23:AI23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AE25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{80EF58AA-08C5-A548-954C-176509ABBF8D}">
+      <formula1>AA30:AE30</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A86" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B66" s="10" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B83" s="10" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C96" s="10" t="s">
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>399</v>
-      </c>
       <c r="C104" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B101 B97 B89 B59 B55 B51 B35" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B105 B93 B76" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
-      <formula1>0</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B23" xr:uid="{00000000-0002-0000-0700-000003000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24" customHeight="1">
+    <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="24" customHeight="1">
+    <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="24" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="24" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:39" ht="24" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="24" customHeight="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:39" ht="24" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="24" customHeight="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="24" customHeight="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>456</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL21" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="AA21" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="AA26" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="AE26" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="AD27" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA28" s="6" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="AB28" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="AC28" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD28" s="6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="AE28" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="AA31" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="AD31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="24" customHeight="1">
+      <c r="AH31" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>479</v>
       </c>
@@ -4997,9 +5869,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="24" customHeight="1">
+    <row r="34" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>481</v>
@@ -5008,13 +5880,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="24" customHeight="1">
+    <row r="35" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+    <row r="36" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>484</v>
+      </c>
       <c r="AA36" s="6" t="s">
         <v>483</v>
       </c>
@@ -5025,57 +5899,285 @@
         <v>485</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
       <c r="AE36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AE37" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AG36" s="6" t="s">
+      <c r="AF37" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AH36" s="6" t="s">
+      <c r="AG37" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AI36" s="6" t="s">
+      <c r="AH37" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AJ36" s="6" t="s">
+      <c r="AI37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="AK36" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="AL36" s="6" t="s">
+    </row>
+    <row r="43" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="AM36" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="AN36" s="6" t="s">
-        <v>65</v>
+    </row>
+    <row r="44" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="2:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="AA50" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI50" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AK50" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AL50" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM50" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN50" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B40" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>AA36:AI36</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0800-000003000000}">
+      <formula1>AA45:AD45</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{00000000-0002-0000-0800-000004000000}">
+      <formula1>AA50:AN50</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B22" xr:uid="{F2DFE5FD-901D-A84C-BA9F-E98103B250FE}">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AH21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AI26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AN36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B31" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>AA27:AH27</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>